--- a/grupos/2BEM - Estadisticos 20202.xlsx
+++ b/grupos/2BEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
   <si>
     <t>Materia</t>
   </si>
@@ -185,12 +185,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -212,30 +212,84 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>CITALAN</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
     <t>NAJERA</t>
   </si>
   <si>
     <t>NUBE</t>
   </si>
   <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -245,57 +299,141 @@
     <t>TELLEZ</t>
   </si>
   <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>CONCHOA</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>SEGURA</t>
   </si>
   <si>
     <t>ARGUELLEZ</t>
   </si>
   <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
     <t>EVARISTO</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
     <t>ALEMAN</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
     <t>HIRAM FABIAN</t>
   </si>
   <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
     <t>YAHIR</t>
   </si>
   <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
     <t>CESAR</t>
   </si>
   <si>
+    <t>MARIA ASUNCION</t>
+  </si>
+  <si>
     <t>JOB ISAY</t>
   </si>
   <si>
     <t>MARCO ANTONIO</t>
   </si>
   <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>NOEL ALBERTO</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
     <t>ALDAIR ALAN</t>
   </si>
   <si>
     <t>JOSE EDUARDO</t>
   </si>
   <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
     <t>ELI ANTONIO</t>
   </si>
   <si>
@@ -305,6 +443,18 @@
     <t>CHRISTIAN YAIR</t>
   </si>
   <si>
+    <t>SERGIO MARIANO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CESAR OMAR</t>
+  </si>
+  <si>
     <t>ROSA ISELA</t>
   </si>
   <si>
@@ -314,160 +464,10 @@
     <t>BENY ALEXANDER</t>
   </si>
   <si>
+    <t>ABIUD</t>
+  </si>
+  <si>
     <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BERNARDO</t>
-  </si>
-  <si>
-    <t>CITALAN</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>GARCÍA</t>
-  </si>
-  <si>
-    <t>CONCHOA</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>MARIA ASUNCION</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>NOEL ALBERTO</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>SERGIO MARIANO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>CESAR OMAR</t>
-  </si>
-  <si>
-    <t>ABIUD</t>
   </si>
   <si>
     <t>ALEXANDER</t>
@@ -1001,13 +1001,13 @@
         <v>7</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>9</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -1096,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="X5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -1155,13 +1155,13 @@
         <v>9</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>9</v>
@@ -1232,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -1309,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -1386,13 +1386,13 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1463,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -1540,13 +1540,13 @@
         <v>9</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q11">
         <v>9</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -1617,13 +1617,13 @@
         <v>9</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S12">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -1694,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>7</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -1718,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>9</v>
@@ -1741,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -1771,13 +1771,13 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q14">
         <v>5</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>7</v>
@@ -1789,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>5</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -1848,13 +1848,13 @@
         <v>6</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W15">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>10</v>
@@ -1925,13 +1925,13 @@
         <v>6</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>5</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -2002,13 +2002,13 @@
         <v>9</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q17">
         <v>10</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2079,13 +2079,13 @@
         <v>9</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q18">
         <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -2144,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -2156,13 +2156,13 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q19">
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>8</v>
@@ -2174,13 +2174,13 @@
         <v>5</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>5</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y19">
         <v>8</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -2233,13 +2233,13 @@
         <v>6</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q20">
         <v>7</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S20">
         <v>10</v>
@@ -2251,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20">
         <v>7</v>
@@ -2310,13 +2310,13 @@
         <v>6</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S21">
         <v>10</v>
@@ -2328,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -2387,13 +2387,13 @@
         <v>7</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q22">
         <v>7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>10</v>
@@ -2464,13 +2464,13 @@
         <v>7</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>10</v>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2541,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -2559,13 +2559,13 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>5</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -2606,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>8</v>
@@ -2618,13 +2618,13 @@
         <v>6</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q25">
         <v>5</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -2636,13 +2636,13 @@
         <v>6</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W25">
         <v>5</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>8</v>
@@ -2665,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>8</v>
@@ -2683,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>8</v>
@@ -2695,13 +2695,13 @@
         <v>6</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <v>5</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>8</v>
@@ -2713,13 +2713,13 @@
         <v>6</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <v>5</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -2742,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2760,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -2772,13 +2772,13 @@
         <v>6</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q27">
         <v>6</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>7</v>
@@ -2790,13 +2790,13 @@
         <v>6</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W27">
         <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y27">
         <v>7</v>
@@ -2849,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q28">
         <v>6</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S28">
         <v>10</v>
@@ -2873,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>10</v>
@@ -2926,13 +2926,13 @@
         <v>6</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q29">
         <v>8</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S29">
         <v>10</v>
@@ -3003,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="P30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q30">
         <v>7</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S30">
         <v>10</v>
@@ -3080,13 +3080,13 @@
         <v>9</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q31">
         <v>6</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S31">
         <v>10</v>
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -3157,13 +3157,13 @@
         <v>6</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q32">
         <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S32">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="X32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y32">
         <v>10</v>
@@ -3222,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <v>8</v>
@@ -3234,13 +3234,13 @@
         <v>6</v>
       </c>
       <c r="P33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q33">
         <v>5</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S33">
         <v>8</v>
@@ -3252,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="V33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W33">
         <v>5</v>
@@ -3281,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -3299,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -3311,13 +3311,13 @@
         <v>5</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q34">
         <v>5</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S34">
         <v>7</v>
@@ -3329,13 +3329,13 @@
         <v>5</v>
       </c>
       <c r="V34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W34">
         <v>5</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y34">
         <v>7</v>
@@ -3388,13 +3388,13 @@
         <v>7</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>6</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3453,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -3465,13 +3465,13 @@
         <v>8</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q36">
         <v>8</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S36">
         <v>10</v>
@@ -3483,13 +3483,13 @@
         <v>7</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W36">
         <v>7</v>
       </c>
       <c r="X36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y36">
         <v>10</v>
@@ -3542,13 +3542,13 @@
         <v>6</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q37">
         <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S37">
         <v>10</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3637,30 +3637,30 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="G2">
-        <v>14.29</v>
+        <v>31.43</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3669,19 +3669,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>68.56999999999999</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G3">
-        <v>31.43</v>
+        <v>25.71</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3825,7 +3825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3853,286 +3853,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920042</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920050</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920052</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920054</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920055</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920097</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920098</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920367</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4171,254 +3891,254 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920042</v>
+        <v>20330051920039</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920050</v>
+        <v>20330051920040</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920052</v>
+        <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920054</v>
+        <v>20330051920043</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920055</v>
+        <v>20330051920044</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920097</v>
+        <v>20330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920098</v>
+        <v>20330051920046</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920366</v>
+        <v>20330051920048</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920367</v>
+        <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920100</v>
+        <v>20330051920051</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920107</v>
+        <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920108</v>
+        <v>20330051920052</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920109</v>
+        <v>20330051920053</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920112</v>
+        <v>20330051920054</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920039</v>
+        <v>20330051920055</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4426,16 +4146,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920040</v>
+        <v>20330051920056</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4443,16 +4163,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920043</v>
+        <v>20330051920057</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4460,16 +4180,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920044</v>
+        <v>20330051920095</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4477,16 +4197,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920045</v>
+        <v>20330051920096</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4494,16 +4214,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920046</v>
+        <v>20330051920097</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4511,16 +4231,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920048</v>
+        <v>20330051920098</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4528,16 +4248,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920051</v>
+        <v>20330051920099</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4545,13 +4262,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920365</v>
+        <v>20330051920366</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>138</v>
@@ -4562,13 +4279,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920053</v>
+        <v>20330051920367</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
@@ -4579,13 +4296,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920056</v>
+        <v>20330051920100</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
@@ -4596,13 +4313,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920057</v>
+        <v>20330051920101</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>141</v>
@@ -4613,13 +4330,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920095</v>
+        <v>20330051920102</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
@@ -4630,13 +4347,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920096</v>
+        <v>20330051920104</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -4647,10 +4364,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920099</v>
+        <v>20330051920105</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
@@ -4661,13 +4381,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920101</v>
+        <v>20330051920107</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -4678,13 +4398,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920102</v>
+        <v>20330051920108</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>146</v>
@@ -4695,13 +4415,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920104</v>
+        <v>20330051920109</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -4712,13 +4432,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920105</v>
+        <v>20330051920111</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
@@ -4729,13 +4449,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920111</v>
+        <v>20330051920112</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>149</v>
@@ -4749,10 +4469,10 @@
         <v>20330051920113</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>150</v>
@@ -4768,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4803,68 +4523,68 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920052</v>
+        <v>20330051920097</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -4872,45 +4592,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920052</v>
+        <v>20330051920097</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920055</v>
+        <v>20330051920039</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4918,45 +4638,45 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920055</v>
+        <v>20330051920042</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920097</v>
+        <v>20330051920055</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4964,45 +4684,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920097</v>
+        <v>20330051920100</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920100</v>
+        <v>20330051920107</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5010,140 +4730,25 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920100</v>
+        <v>20330051920109</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920039</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2BEM - Estadisticos 20202.xlsx
+++ b/grupos/2BEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
   <si>
     <t>Materia</t>
   </si>
@@ -185,19 +185,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>NC</t>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3637,19 +3637,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>68.56999999999999</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G2">
-        <v>31.43</v>
+        <v>25.71</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3681,7 +3681,7 @@
         <v>25.71</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3701,19 +3701,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>77.14</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="G4">
-        <v>22.86</v>
+        <v>8.57</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3733,19 +3733,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>91.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4488,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4538,7 +4538,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -4561,7 +4561,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4569,22 +4569,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920097</v>
+        <v>20330051920098</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -4592,22 +4592,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920097</v>
+        <v>20330051920098</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4615,22 +4615,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920039</v>
+        <v>20330051920366</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4638,45 +4638,45 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920042</v>
+        <v>20330051920366</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920055</v>
+        <v>20330051920367</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4684,22 +4684,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920100</v>
+        <v>20330051920367</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920107</v>
+        <v>20330051920039</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -4730,24 +4730,70 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920109</v>
+        <v>20330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>
